--- a/approaches/our_data/our_ground_truth/GitLab Issues API/response_property_constraints.xlsx
+++ b/approaches/our_data/our_ground_truth/GitLab Issues API/response_property_constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth\GitLab Issues API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B057F00-A280-42AA-95F1-D95D7F449B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4147595-BEF8-4456-93F9-EB4BC426D42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="49">
   <si>
     <t>operation</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Todo</t>
+  </si>
+  <si>
+    <t>GET /projects/{id}/issues/{issue_iid}</t>
+  </si>
+  <si>
+    <t>GET /projects/{id}/issues/{issue_iid}/related_merge_requests</t>
+  </si>
+  <si>
+    <t>PUT /projects/{id}/issues/{issue_iid}</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,6 +2661,328 @@
         <v>6</v>
       </c>
     </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>47</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>35</v>
+      </c>
+      <c r="B132" t="s">
+        <v>37</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>35</v>
+      </c>
+      <c r="B133" t="s">
+        <v>37</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>35</v>
+      </c>
+      <c r="B134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>35</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>35</v>
+      </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D117" xr:uid="{C8036AD9-DAD5-4460-BD03-D502A9F6DC47}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
